--- a/file-conversions/data/test_convert/South_Boundry_forhrishabh.xlsx
+++ b/file-conversions/data/test_convert/South_Boundry_forhrishabh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrishabh.rajeev\Documents\Projects\delft-file-conversions\file-conversions\data\test_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900D18F3-9B6D-4114-B587-EC1F50A6BE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF0E96F-37F0-494A-AAE6-624CB0A2FAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Time</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Depth 186.13</t>
+  </si>
+  <si>
+    <t>Hour</t>
   </si>
 </sst>
 </file>
@@ -496,3754 +499,4381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC625"/>
+  <dimension ref="A1:AD625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44866</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2"/>
+      <c r="C2">
         <v>-29.41666412353516</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>16.333343505859379</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>0.1575977951288223</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.15112842619419101</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.14438420534133911</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.1385380029678345</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.1337543576955795</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.12976594269275671</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.12632700800895691</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.1232992112636566</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.1205825209617615</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.118124932050705</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.1159064844250679</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.1139965206384659</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.1124051958322525</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.111486941576004</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.1123023331165314</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.11601827293634411</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.1389966011047363</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.14669004082679751</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.14686737954616549</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.12197466194629671</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>7.8192710876464844E-2</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2.8037004172801971E-2</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4.5676082372665414E-3</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1.7548820003867149E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44866.25</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2"/>
+      <c r="C3">
         <v>-29.41666412353516</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>16.333343505859379</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>-2.7359949424862862E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-3.2677561044692993E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-3.3723779022693627E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-3.4026067703962333E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-3.4170527011156082E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-3.4254297614097602E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-3.4311484545469277E-2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-3.4360185265541077E-2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-3.4411448985338211E-2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-3.4475170075893402E-2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-3.4559890627861023E-2</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-3.4669473767280579E-2</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-3.4682843834161758E-2</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-3.4161753952503197E-2</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-2.5078196078538891E-2</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.2699487619101999E-2</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>4.7669056802988052E-2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>9.6046730875968933E-2</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>8.0116674304008484E-2</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>8.6068376898765564E-2</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>8.7956517934799194E-2</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.10529735684394841</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>8.6317203938961029E-2</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.1063565909862518</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44866.5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2"/>
+      <c r="C4">
         <v>-29.41666412353516</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>16.333343505859379</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>0.26687714457511902</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.2553977370262146</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.20347639918327329</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.19890426099300379</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.1960372477769852</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.19311730563640589</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.19005924463272089</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.18685756623744959</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.18357664346694949</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.18039050698280329</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.1773389279842377</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.17399731278419489</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.168841153383255</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.15192155539989469</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.1068685874342918</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>7.5895905494689941E-2</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4.2300738394260413E-2</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>3.7928566336631768E-2</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2.3703334853053089E-2</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2.5727095082402229E-2</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>4.1350036859512329E-2</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>4.695284366607666E-2</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2.7899967972189188E-4</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-1.2935596518218521E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44866.75</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2"/>
+      <c r="C5">
         <v>-29.41666412353516</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>16.333343505859379</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>0.532920241355896</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.53128045797348022</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.48915621638298029</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.42369216680526728</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.39163494110107422</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.38118258118629461</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.37301653623580933</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.36463579535484308</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.3556772768497467</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.34629106521606451</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.33653658628463751</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.32559522986412048</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.31360146403312678</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.30152171850204468</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.2610602080821991</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.1897947043180466</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.10346589237451551</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>5.410027876496315E-2</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>4.9167536199092858E-2</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1.0410051792860029E-2</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-1.0352181270718569E-2</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-5.0909809768199921E-2</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-9.5941372215747833E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-0.1124527081847191</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44866</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2"/>
+      <c r="C6">
         <v>-29.333332061767582</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>16.416671752929691</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>2.3911826312541962E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.7143856734037399E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.0391697287559509E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.0365999341011047E-3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.018741051666439E-3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-2.0598021801561122E-3</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-4.4895950704813004E-3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-6.4554102718830109E-3</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-8.073270320892334E-3</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-9.4144903123378754E-3</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-1.0535880923271179E-2</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-1.1436461471021181E-2</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-1.2148007750511169E-2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-1.213804446160793E-2</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.10155618190765379</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.15652306377887731</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.16856580972671509</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.16821980476379389</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.13606967031955719</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>8.6998984217643738E-2</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>4.1735753417015083E-2</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1.030940655618906E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3.9613652974367142E-2</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>7.1558438241481781E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44866.25</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2"/>
+      <c r="C7">
         <v>-29.333332061767582</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>16.416671752929691</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>-5.4613478481769562E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-5.5036388337612152E-2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-5.4793067276477807E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-5.4409336298704147E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-5.3948614746332169E-2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-5.3429380059242249E-2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-5.2863627672195428E-2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-5.225665494799614E-2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-5.1609311252832413E-2</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-5.0925128161907203E-2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-5.0193943083286292E-2</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-4.9300365149974823E-2</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-4.8042681068181992E-2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-3.5044118762016303E-2</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>8.5957899689674377E-2</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.13201360404491419</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.13946306705474851</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.11524293571710589</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.10253059864044189</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8.5604667663574219E-2</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>5.7857111096382141E-2</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5.7815045118331909E-2</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>4.3332938104867942E-2</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>4.3046362698078162E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44866.5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2"/>
+      <c r="C8">
         <v>-29.333332061767582</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>16.416671752929691</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>0.1942916065454483</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.17441433668136599</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.14853453636169431</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.15000367164611819</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.15192455053329471</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.15401580929756159</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.15640394389629361</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.1591653376817703</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.16241255402565</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.16616286337375641</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.17047356069087979</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.17503675818443301</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.17590346932411191</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.16609930992126459</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.14418135583400729</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>8.8459134101867676E-2</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3.7873242050409317E-2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-1.1681638658046721E-2</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>3.3004973083734508E-3</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1.6032259911298748E-2</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1.3889770954847339E-2</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2.236821316182613E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-5.5941841565072536E-3</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-5.1571642979979524E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44866.75</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2"/>
+      <c r="C9">
         <v>-29.333332061767582</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>16.416671752929691</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>0.27915242314338679</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.27875325083732599</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.21928393840789789</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.17185093462467191</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.16308312118053439</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.1642782986164093</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.16744863986968991</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.1713236719369888</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.17595015466213229</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.18106818199157709</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.1866715997457504</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.19382648169994349</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.19908031821250921</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.21279323101043701</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.16809640824794769</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.12878935039043429</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>8.6074165999889374E-2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2.4449236690998081E-2</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>8.3718709647655487E-3</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-5.1431660540401944E-3</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-1.485464069992304E-2</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-2.814182452857494E-2</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-6.9012721069157124E-3</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1.609870977699757E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44866</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2"/>
+      <c r="C10">
         <v>-29.25</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>16.5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>-6.9582149386405945E-2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-7.6852902770042419E-2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-8.3625733852386475E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-8.8594697415828705E-2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-9.2263281345367432E-2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-9.514039009809494E-2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-9.7520947456359863E-2</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-9.9577896296977997E-2</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-0.1014271676540375</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-0.10318493843078611</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-0.1050865799188614</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-0.10837790369987491</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-0.11245892196893691</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-0.1014726161956787</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>8.1733819097280502E-3</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.1025421693921089</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.10953729599714281</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>9.343409538269043E-2</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5.0255227833986282E-2</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>9.1308029368519783E-3</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1.101120747625828E-2</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-7.021462544798851E-3</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3.9500713348388672E-2</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>5.0655998289585107E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44866.25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2"/>
+      <c r="C11">
         <v>-29.25</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>16.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>-0.1727333068847656</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.16932988166809079</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.1682044118642807</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.16770996153354639</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.1673026233911514</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.166891023516655</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.16645872592926031</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-0.16599865257740021</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-0.1655163764953613</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-0.16504628956317899</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-0.1645455211400986</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-0.16392941772937769</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-0.1635545939207077</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-0.15234002470970151</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-5.4868303239345551E-2</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3.7769582122564323E-2</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>5.0279974937438958E-2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4.9107979983091347E-2</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>4.311409592628479E-2</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5.1750749349594123E-2</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5.270945280790329E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>4.8183783888816827E-2</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3.3496811985969543E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>3.9086002856493003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44866.5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2"/>
+      <c r="C12">
         <v>-29.25</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>16.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>7.7689409255981445E-2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5.8531504124403E-2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2.929896675050259E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.484679035842419E-2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.4477167055010799E-2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.5781085714697841E-2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2.7470529079437259E-2</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2.954790182411671E-2</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3.2325819134712219E-2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3.5410821437835693E-2</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>3.720397874712944E-2</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>3.8724720478057861E-2</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3.4954659640789032E-2</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-1.273260358721018E-2</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-5.8215968310832977E-2</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-9.7528986632823944E-2</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-0.12953032553195951</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-0.11452145129442209</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-6.4257986843585968E-2</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>7.3935947148129344E-4</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2.1616378799080849E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>3.6637146025896072E-2</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2.0940501242876049E-2</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>3.6280196160078049E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44866.75</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2"/>
+      <c r="C13">
         <v>-29.25</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>16.5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>0.14309623837471011</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.1434413939714432</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>8.4033511579036713E-2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.093521669507027E-2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.119167871773243E-2</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3.3318284898996353E-2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3.4610893577337272E-2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3.5610426217317581E-2</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3.7066087126731873E-2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3.9544478058815002E-2</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>4.1322633624076843E-2</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3.4018732607364648E-2</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-4.5714243315160266E-3</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-7.100900262594223E-2</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-9.5947913825511932E-2</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-0.10241289436817171</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-8.0537013709545135E-2</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-5.9131026268005371E-2</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-4.2252648621797562E-2</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-3.2264325767755508E-2</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-1.9693110138177872E-2</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-8.3748502656817436E-3</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>4.0232304483652108E-2</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>3.8627754896879203E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44866</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2"/>
+      <c r="C14">
         <v>-29.16666412353516</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>16.583343505859379</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>6.0049023479223251E-2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5.2798386663198471E-2</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.8532985150814063E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4.5786015689373023E-2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4.3709862977266312E-2</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4.1980378329753883E-2</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.0440566837787628E-2</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3.9010047912597663E-2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3.7635941058397293E-2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3.6284461617469788E-2</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3.4935586154460907E-2</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3.3515308052301407E-2</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3.1864210963249207E-2</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3.392241895198822E-2</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>5.6386832147836692E-2</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>6.8938232958316803E-2</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>6.1392161995172501E-2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>5.3238946944475167E-2</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>7.9286210238933563E-3</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-2.4955408647656441E-2</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-3.4293331205844879E-2</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-4.5131750404834747E-2</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-3.9643824100494378E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44866.25</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2"/>
+      <c r="C15">
         <v>-29.16666412353516</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>16.583343505859379</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>-0.1041462644934654</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-9.7625739872455597E-2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-9.1100014746189117E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-8.5640326142311096E-2</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-8.2472734153270721E-2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-8.0994643270969391E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-8.0379419028759003E-2</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-8.0164380371570587E-2</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-8.0144293606281281E-2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-8.020695298910141E-2</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-8.0219611525535583E-2</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-7.9441793262958527E-2</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-6.719525158405304E-2</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-2.344255335628986E-2</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3.7759404629468918E-2</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>5.7561852037906647E-2</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>4.60328608751297E-2</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3.8698546588420868E-2</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.8750138580799099E-2</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2.1986523643136021E-2</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.716687344014645E-2</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1.0490383021533489E-2</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-2.1501462906599041E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44866.5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2"/>
+      <c r="C16">
         <v>-29.16666412353516</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>16.583343505859379</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>3.3457688987255103E-2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.8898511081933979E-2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.1276557818055149E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.8596557900309559E-2</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.432044990360737E-2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>9.8569458350539207E-3</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5.9077856130897999E-3</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2.0002997480332851E-3</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-1.894929679110646E-3</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-5.8399783447384834E-3</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-9.9807633087038994E-3</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-1.4499271288514141E-2</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-1.12876882776618E-2</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-1.136500760912895E-2</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-2.6177942752838131E-2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-3.4711945801973343E-2</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-5.0820205360651023E-2</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-3.4153204411268227E-2</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-5.7652564719319344E-3</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>9.6293780952692032E-3</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-2.6286807842552662E-3</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-3.5932257771491997E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-5.928272008895874E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44866.75</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2"/>
+      <c r="C17">
         <v>-29.16666412353516</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>16.583343505859379</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>0.1937911659479141</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1974962800741196</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.12686286866664889</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.1006264612078667</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>9.9923454225063324E-2</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>9.7729310393333435E-2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9.5925815403461456E-2</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>9.373348206281662E-2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>9.1631747782230377E-2</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>8.9061059057712555E-2</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>8.4303200244903564E-2</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>7.5343452394008636E-2</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>5.5297285318374627E-2</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3.4081148914992809E-3</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-5.7164687663316727E-2</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-6.6201813519001007E-2</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-5.9613104909658432E-2</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-3.9950530976057053E-2</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-2.903233282268047E-2</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-5.6674785912036903E-2</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-7.3903746902942657E-2</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-0.1218885108828545</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-8.3469785749912262E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44866</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2"/>
+      <c r="C18">
         <v>-29.083332061767582</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>16.666671752929691</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>0.22772285342216489</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.22740033268928531</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.2269463241100311</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.2264036238193512</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.22566589713096619</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.22474464774131769</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.22363908588886261</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.2222646176815033</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.22023263573646551</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.2173491567373276</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.21259911358356481</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.20383201539516449</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.19134008884429929</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.16366024315357211</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.16751688718795779</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.17223036289215091</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.1624460369348526</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>9.974168986082077E-2</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>4.7012615948915482E-2</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1.6899308189749721E-2</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-2.062745206058025E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44866.25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2"/>
+      <c r="C19">
         <v>-29.083332061767582</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>16.666671752929691</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>0.14187934994697571</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.14898635447025299</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.1562834978103638</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.16159018874168399</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.16413287818431849</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.16499178111553189</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.16506606340408331</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.16468906402587891</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.16391533613204959</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.16283957660198209</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.1615894287824631</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.160233199596405</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.1655278354883194</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.1632165461778641</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.17170555889606481</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.14846935868263239</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.13547325134277341</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>7.7178768813610077E-2</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>4.4694874435663223E-2</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>3.4146558493375778E-2</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1.7526194453239441E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44866.5</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2"/>
+      <c r="C20">
         <v>-29.083332061767582</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>16.666671752929691</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>0.1976454108953476</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.1987592279911041</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.20031920075416559</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.1947463005781174</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.18617014586925509</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.17931866645812991</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.17463453114032751</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.16910403966903689</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.15920048952102661</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.14953964948654169</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.13975794613361359</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.13463641703128809</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.14767464995384219</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.128437414765358</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>9.7809746861457825E-2</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>8.5850052535533905E-2</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>8.7970145046710968E-2</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>2.9224958270788189E-2</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3.064738214015961E-2</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>1.8390253186225891E-2</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-4.7219889238476753E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44866.75</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2"/>
+      <c r="C21">
         <v>-29.083332061767582</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>16.666671752929691</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>0.38896352052688599</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.39266073703765869</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.38692829012870789</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.31224349141120911</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.26321372389793402</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.23160411417484281</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.21411862969398501</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.20405466854572299</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.18636277318000791</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.16611258685588839</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.15231238305568701</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.1265372037887573</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.1184906214475632</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1101853102445602</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>6.6394835710525513E-2</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>5.3895086050033569E-2</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>6.9229312241077423E-2</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1.263175625354052E-3</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-5.4668732918798923E-3</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-4.2385797947645187E-2</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-8.6342550814151764E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44866</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2"/>
+      <c r="C22">
         <v>-29</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>16.666671752929691</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>0.20881778001785281</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.20455807447433469</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2003644406795502</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.19642944633960721</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.19311933219432831</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.19135583937168121</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.19051370024681091</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.18801844120025629</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.17842139303684229</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1789289265871048</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.19949707388877869</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.20540176331996921</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.20298917591571811</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.18326497077941889</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.1639968007802963</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1638572961091995</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44866.25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2"/>
+      <c r="C23">
         <v>-29</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>16.666671752929691</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>7.3875501751899719E-2</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>8.2312382757663727E-2</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>9.6546798944473267E-2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.1155579313635826</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.12531587481498721</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.13217012584209439</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1380618214607239</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1447530388832092</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.14861290156841281</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1605185121297836</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.17289058864116669</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.17795722186565399</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.17175737023353579</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.146672323346138</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.13493013381958011</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.12987898290157321</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44866.5</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2"/>
+      <c r="C24">
         <v>-29</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>16.666671752929691</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>0.11550471931695939</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.11595003306865689</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.1156921684741974</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.11314953863620759</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.1124761551618576</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.11897334456443789</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.12972649931907651</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.1372092813253403</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.13106091320514679</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.1294897794723511</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.1486996412277222</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.14806060492992401</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.1464967876672745</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.1130025312304497</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>7.3773793876171112E-2</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>6.2713168561458588E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44866.75</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2"/>
+      <c r="C25">
         <v>-29</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>16.666671752929691</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>0.2689545750617981</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.27318409085273743</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.27978941798210138</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.21868184208869931</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.15862205624580381</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.1176004782319069</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.1080692857503891</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.1170834898948669</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.1120384782552719</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.1010921448469162</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.14893451333045959</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.128578245639801</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.1290438771247864</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.11775167286396029</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>5.8281328529119492E-2</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>3.2518588006496429E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333" s="2"/>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335" s="2"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343" s="2"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347" s="2"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" s="2"/>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" s="2"/>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B401" s="2"/>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B402" s="2"/>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B403" s="2"/>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B408" s="2"/>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B410" s="2"/>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B412" s="2"/>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B415" s="2"/>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B416" s="2"/>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B417" s="2"/>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B418" s="2"/>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B419" s="2"/>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B420" s="2"/>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B421" s="2"/>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B422" s="2"/>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B423" s="2"/>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B424" s="2"/>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B427" s="2"/>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B428" s="2"/>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B429" s="2"/>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B432" s="2"/>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B435" s="2"/>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B436" s="2"/>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B437" s="2"/>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B438" s="2"/>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B439" s="2"/>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B440" s="2"/>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B441" s="2"/>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B442" s="2"/>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B443" s="2"/>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B444" s="2"/>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B445" s="2"/>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B446" s="2"/>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B447" s="2"/>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B448" s="2"/>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B449" s="2"/>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B450" s="2"/>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B451" s="2"/>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B452" s="2"/>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B453" s="2"/>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B454" s="2"/>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B455" s="2"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B456" s="2"/>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B457" s="2"/>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B458" s="2"/>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B459" s="2"/>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B460" s="2"/>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B461" s="2"/>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B462" s="2"/>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B463" s="2"/>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B464" s="2"/>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B465" s="2"/>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B466" s="2"/>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B467" s="2"/>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B468" s="2"/>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B469" s="2"/>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B470" s="2"/>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B471" s="2"/>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B472" s="2"/>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B473" s="2"/>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B474" s="2"/>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B475" s="2"/>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B476" s="2"/>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B477" s="2"/>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B478" s="2"/>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B479" s="2"/>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B480" s="2"/>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B481" s="2"/>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B482" s="2"/>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B483" s="2"/>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B484" s="2"/>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B485" s="2"/>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B486" s="2"/>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B487" s="2"/>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B488" s="2"/>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B489" s="2"/>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B490" s="2"/>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B491" s="2"/>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B492" s="2"/>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B493" s="2"/>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B494" s="2"/>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B495" s="2"/>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B496" s="2"/>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B497" s="2"/>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B498" s="2"/>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B499" s="2"/>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B500" s="2"/>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B501" s="2"/>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B502" s="2"/>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B503" s="2"/>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B504" s="2"/>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B505" s="2"/>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B506" s="2"/>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B507" s="2"/>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B508" s="2"/>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B509" s="2"/>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B510" s="2"/>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B511" s="2"/>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B512" s="2"/>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B513" s="2"/>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B514" s="2"/>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B515" s="2"/>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B516" s="2"/>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B517" s="2"/>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B518" s="2"/>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B519" s="2"/>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B520" s="2"/>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B521" s="2"/>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B522" s="2"/>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B523" s="2"/>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B524" s="2"/>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B525" s="2"/>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B526" s="2"/>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B527" s="2"/>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B528" s="2"/>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B529" s="2"/>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B530" s="2"/>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B531" s="2"/>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B532" s="2"/>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B533" s="2"/>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B534" s="2"/>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B535" s="2"/>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B536" s="2"/>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B537" s="2"/>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B538" s="2"/>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B539" s="2"/>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B540" s="2"/>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B541" s="2"/>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B542" s="2"/>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B543" s="2"/>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B544" s="2"/>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B545" s="2"/>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B546" s="2"/>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B547" s="2"/>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B548" s="2"/>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B549" s="2"/>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B550" s="2"/>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B551" s="2"/>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B552" s="2"/>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B553" s="2"/>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B554" s="2"/>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B555" s="2"/>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B556" s="2"/>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B557" s="2"/>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B558" s="2"/>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B559" s="2"/>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B560" s="2"/>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B561" s="2"/>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B562" s="2"/>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B563" s="2"/>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B564" s="2"/>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B565" s="2"/>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B566" s="2"/>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B567" s="2"/>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B568" s="2"/>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B569" s="2"/>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B570" s="2"/>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B571" s="2"/>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B572" s="2"/>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B573" s="2"/>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B574" s="2"/>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B575" s="2"/>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B576" s="2"/>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B577" s="2"/>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B578" s="2"/>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B579" s="2"/>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B580" s="2"/>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B581" s="2"/>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B582" s="2"/>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B583" s="2"/>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B584" s="2"/>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B585" s="2"/>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B586" s="2"/>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B587" s="2"/>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B588" s="2"/>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B589" s="2"/>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B590" s="2"/>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B591" s="2"/>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B592" s="2"/>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B593" s="2"/>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B594" s="2"/>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B595" s="2"/>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B596" s="2"/>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B597" s="2"/>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B598" s="2"/>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B599" s="2"/>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B600" s="2"/>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B601" s="2"/>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B602" s="2"/>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B603" s="2"/>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B604" s="2"/>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B605" s="2"/>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B606" s="2"/>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B607" s="2"/>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B608" s="2"/>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B609" s="2"/>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B610" s="2"/>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B611" s="2"/>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B612" s="2"/>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B613" s="2"/>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B614" s="2"/>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B615" s="2"/>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B616" s="2"/>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B617" s="2"/>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B618" s="2"/>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B619" s="2"/>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B620" s="2"/>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B621" s="2"/>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B622" s="2"/>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B623" s="2"/>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B624" s="2"/>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
+      <c r="B625" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
